--- a/2.Funciones_Básicas/ejercicios/data.xlsx
+++ b/2.Funciones_Básicas/ejercicios/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\2.Funciones_Básicas\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B72D4D-17D8-48BA-BF3E-67C38BEB5BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6EF752-9EBA-484A-89BE-9DE69DB50382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1290" windowWidth="19110" windowHeight="10230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Matemáticos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Nombre</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>CONTARA</t>
+  </si>
+  <si>
+    <t>Evitar Errores</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -270,9 +273,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -280,9 +280,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -323,18 +349,19 @@
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -374,30 +401,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -412,39 +415,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}" name="Tabla1" displayName="Tabla1" ref="A1:J6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}" name="Tabla1" displayName="Tabla1" ref="A1:J6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:J6" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5555F39B-5640-4FC5-9EA8-B28C8A5FC836}" name="Nombre" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{1263FBBC-4820-4FB4-B2E9-0A13D52B80FB}" name="Nota 1" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{428924CE-E9CF-4A69-9930-1BDC5B1ED232}" name="Nota 2" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{0785C79C-178D-4CA5-87E1-A4861A25C608}" name="Nota 3" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{86C3687C-0DA6-432C-902D-44A867595DB9}" name="Total Notas" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{5555F39B-5640-4FC5-9EA8-B28C8A5FC836}" name="Nombre" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{1263FBBC-4820-4FB4-B2E9-0A13D52B80FB}" name="Nota 1" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{428924CE-E9CF-4A69-9930-1BDC5B1ED232}" name="Nota 2" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{0785C79C-178D-4CA5-87E1-A4861A25C608}" name="Nota 3" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{86C3687C-0DA6-432C-902D-44A867595DB9}" name="Total Notas" dataDxfId="13">
       <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BBDE2061-9AB5-4326-84A9-BB9C8B218E6B}" name="Promedio" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{BBDE2061-9AB5-4326-84A9-BB9C8B218E6B}" name="Promedio" dataDxfId="12">
       <calculatedColumnFormula>AVERAGE(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3212984E-8604-4D52-A7AC-2556B2A96D6F}" name="Min" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{3212984E-8604-4D52-A7AC-2556B2A96D6F}" name="Min" dataDxfId="11">
       <calculatedColumnFormula>MIN(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4697060C-B378-4A36-9FF1-420ADAAFDB71}" name="Max" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{4697060C-B378-4A36-9FF1-420ADAAFDB71}" name="Max" dataDxfId="10">
       <calculatedColumnFormula>MAX(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B879FB0F-3934-4585-9222-D925C5176823}" name="CONTAR" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{1BF4D79A-9B18-4D20-976A-C82BFE477768}" name="CONTARA" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{B879FB0F-3934-4585-9222-D925C5176823}" name="CONTAR" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{1BF4D79A-9B18-4D20-976A-C82BFE477768}" name="CONTARA" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}" name="Tabla2" displayName="Tabla2" ref="A1:C6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="A1:C6" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C3DA60A-7648-4784-A51A-01D675554313}" name="Nombre" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2D12E87D-6420-4086-8B3A-D9C81862F652}" name="Edad" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{39DE13FA-2E57-4E09-A7FC-FA17DFDA488A}" name="Aprobado (&gt;=18 años)" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="A1:D6" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3C3DA60A-7648-4784-A51A-01D675554313}" name="Nombre" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{2D12E87D-6420-4086-8B3A-D9C81862F652}" name="Edad" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{39DE13FA-2E57-4E09-A7FC-FA17DFDA488A}" name="Aprobado (&gt;=18 años)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{799CA196-BF61-4702-9A20-2C0E8C4DB0EE}" name="Evitar Errores" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -815,11 +819,11 @@
         <f>MAX(B2:D2)</f>
         <v>85</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <f>COUNT(A2:H2)</f>
         <v>7</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <f>COUNTA(A2:H2)</f>
         <v>8</v>
       </c>
@@ -853,11 +857,11 @@
         <f>MAX(B3:D3)</f>
         <v>95</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <f>COUNT(A3:H3)</f>
         <v>7</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <f>COUNTA(A3:H3)</f>
         <v>8</v>
       </c>
@@ -891,11 +895,11 @@
         <f>MAX(B4:D4)</f>
         <v>70</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <f>COUNT(A4:H4)</f>
         <v>7</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <f>COUNTA(A4:H4)</f>
         <v>8</v>
       </c>
@@ -929,11 +933,11 @@
         <f>MAX(B5:D5)</f>
         <v>92</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <f>COUNT(A5:H5)</f>
         <v>7</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <f>COUNTA(A5:H5)</f>
         <v>8</v>
       </c>
@@ -967,11 +971,11 @@
         <f>MAX(B6:D6)</f>
         <v>80</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <f>COUNT(A6:H6)</f>
         <v>7</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <f>COUNTA(A6:H6)</f>
         <v>8</v>
       </c>
@@ -986,10 +990,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,63 +1001,87 @@
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3">
         <v>23</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="str">
+        <f>IF(B2 &gt;= 18, "Aprobado", "Reprobado")</f>
+        <v>Aprobado</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>17</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="str">
+        <f>IF(B3&gt;=18,"Aprobado", "Reprobado")</f>
+        <v>Reprobado</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>35</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="str">
+        <f>IF(B4&gt;=18,"Aprobado", "Reprobado")</f>
+        <v>Aprobado</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>29</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="str">
+        <f>IF(B5&gt;=18,"Aprobado","Reprobado")</f>
+        <v>Aprobado</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>16</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="str">
+        <f>IF(B6&gt;=18,"Aprobado","Reprobado")</f>
+        <v>Reprobado</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.Funciones_Básicas/ejercicios/data.xlsx
+++ b/2.Funciones_Básicas/ejercicios/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\2.Funciones_Básicas\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6EF752-9EBA-484A-89BE-9DE69DB50382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF48DD-346A-4E08-9D6D-4004CD1C4E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1290" windowWidth="19110" windowHeight="10230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Nombre</t>
   </si>
@@ -177,13 +177,19 @@
   </si>
   <si>
     <t>Evitar Errores</t>
+  </si>
+  <si>
+    <t>Función: SI.ERROR</t>
+  </si>
+  <si>
+    <t>Función: SI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,16 +205,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -255,11 +301,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -276,14 +346,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -415,40 +499,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}" name="Tabla1" displayName="Tabla1" ref="A1:J6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}" name="Tabla1" displayName="Tabla1" ref="A1:J6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:J6" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5555F39B-5640-4FC5-9EA8-B28C8A5FC836}" name="Nombre" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{1263FBBC-4820-4FB4-B2E9-0A13D52B80FB}" name="Nota 1" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{428924CE-E9CF-4A69-9930-1BDC5B1ED232}" name="Nota 2" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{0785C79C-178D-4CA5-87E1-A4861A25C608}" name="Nota 3" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{86C3687C-0DA6-432C-902D-44A867595DB9}" name="Total Notas" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{5555F39B-5640-4FC5-9EA8-B28C8A5FC836}" name="Nombre" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{1263FBBC-4820-4FB4-B2E9-0A13D52B80FB}" name="Nota 1" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{428924CE-E9CF-4A69-9930-1BDC5B1ED232}" name="Nota 2" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{0785C79C-178D-4CA5-87E1-A4861A25C608}" name="Nota 3" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{86C3687C-0DA6-432C-902D-44A867595DB9}" name="Total Notas" dataDxfId="12">
       <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BBDE2061-9AB5-4326-84A9-BB9C8B218E6B}" name="Promedio" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{BBDE2061-9AB5-4326-84A9-BB9C8B218E6B}" name="Promedio" dataDxfId="11">
       <calculatedColumnFormula>AVERAGE(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3212984E-8604-4D52-A7AC-2556B2A96D6F}" name="Min" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{3212984E-8604-4D52-A7AC-2556B2A96D6F}" name="Min" dataDxfId="10">
       <calculatedColumnFormula>MIN(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4697060C-B378-4A36-9FF1-420ADAAFDB71}" name="Max" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{4697060C-B378-4A36-9FF1-420ADAAFDB71}" name="Max" dataDxfId="9">
       <calculatedColumnFormula>MAX(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B879FB0F-3934-4585-9222-D925C5176823}" name="CONTAR" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{1BF4D79A-9B18-4D20-976A-C82BFE477768}" name="CONTARA" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{B879FB0F-3934-4585-9222-D925C5176823}" name="CONTAR" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{1BF4D79A-9B18-4D20-976A-C82BFE477768}" name="CONTARA" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}" name="Tabla2" displayName="Tabla2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="A1:D6" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3C3DA60A-7648-4784-A51A-01D675554313}" name="Nombre" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{2D12E87D-6420-4086-8B3A-D9C81862F652}" name="Edad" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{39DE13FA-2E57-4E09-A7FC-FA17DFDA488A}" name="Aprobado (&gt;=18 años)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{799CA196-BF61-4702-9A20-2C0E8C4DB0EE}" name="Evitar Errores" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}" name="Tabla2" displayName="Tabla2" ref="B3:D8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+  <autoFilter ref="B3:D8" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3C3DA60A-7648-4784-A51A-01D675554313}" name="Nombre" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2D12E87D-6420-4086-8B3A-D9C81862F652}" name="Edad" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{39DE13FA-2E57-4E09-A7FC-FA17DFDA488A}" name="Aprobado (&gt;=18 años)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -990,100 +1073,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="B1" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>IF(C4 &gt;= 18, "Aprobado", "Reprobado")</f>
+        <v>Aprobado</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>IF(C5&gt;=18,"Aprobado", "Reprobado")</f>
+        <v>Reprobado</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>IF(C6&gt;=18,"Aprobado", "Reprobado")</f>
+        <v>Aprobado</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f>IF(C7&gt;=18,"Aprobado","Reprobado")</f>
+        <v>Aprobado</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>IF(C8&gt;=18,"Aprobado","Reprobado")</f>
+        <v>Reprobado</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f>IF(B2 &gt;= 18, "Aprobado", "Reprobado")</f>
-        <v>Aprobado</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <f>IF(B3&gt;=18,"Aprobado", "Reprobado")</f>
-        <v>Reprobado</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f>IF(B4&gt;=18,"Aprobado", "Reprobado")</f>
-        <v>Aprobado</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f>IF(B5&gt;=18,"Aprobado","Reprobado")</f>
-        <v>Aprobado</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f>IF(B6&gt;=18,"Aprobado","Reprobado")</f>
-        <v>Reprobado</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/2.Funciones_Básicas/ejercicios/data.xlsx
+++ b/2.Funciones_Básicas/ejercicios/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\2.Funciones_Básicas\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF48DD-346A-4E08-9D6D-4004CD1C4E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270950E2-A0FB-4FA3-AE9F-7917686F1436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1290" windowWidth="19110" windowHeight="10230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Nombre</t>
   </si>
@@ -176,20 +176,38 @@
     <t>CONTARA</t>
   </si>
   <si>
-    <t>Evitar Errores</t>
-  </si>
-  <si>
     <t>Función: SI.ERROR</t>
   </si>
   <si>
     <t>Función: SI</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>Columna3</t>
+  </si>
+  <si>
+    <t>Columna4</t>
+  </si>
+  <si>
+    <t>Columna5</t>
+  </si>
+  <si>
+    <t>Colmna1</t>
+  </si>
+  <si>
+    <t>Función SI.CONJUNTO</t>
+  </si>
+  <si>
+    <t>Categoría</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,14 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,30 +241,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -301,35 +293,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -346,36 +314,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="27">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -386,13 +352,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -424,37 +383,48 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -485,6 +455,68 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -499,39 +531,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}" name="Tabla1" displayName="Tabla1" ref="A1:J6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}" name="Tabla1" displayName="Tabla1" ref="A1:J6" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:J6" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5555F39B-5640-4FC5-9EA8-B28C8A5FC836}" name="Nombre" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{1263FBBC-4820-4FB4-B2E9-0A13D52B80FB}" name="Nota 1" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{428924CE-E9CF-4A69-9930-1BDC5B1ED232}" name="Nota 2" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{0785C79C-178D-4CA5-87E1-A4861A25C608}" name="Nota 3" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{86C3687C-0DA6-432C-902D-44A867595DB9}" name="Total Notas" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{5555F39B-5640-4FC5-9EA8-B28C8A5FC836}" name="Nombre" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{1263FBBC-4820-4FB4-B2E9-0A13D52B80FB}" name="Nota 1" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{428924CE-E9CF-4A69-9930-1BDC5B1ED232}" name="Nota 2" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{0785C79C-178D-4CA5-87E1-A4861A25C608}" name="Nota 3" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{86C3687C-0DA6-432C-902D-44A867595DB9}" name="Total Notas" dataDxfId="20">
       <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BBDE2061-9AB5-4326-84A9-BB9C8B218E6B}" name="Promedio" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{BBDE2061-9AB5-4326-84A9-BB9C8B218E6B}" name="Promedio" dataDxfId="19">
       <calculatedColumnFormula>AVERAGE(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3212984E-8604-4D52-A7AC-2556B2A96D6F}" name="Min" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{3212984E-8604-4D52-A7AC-2556B2A96D6F}" name="Min" dataDxfId="18">
       <calculatedColumnFormula>MIN(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4697060C-B378-4A36-9FF1-420ADAAFDB71}" name="Max" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{4697060C-B378-4A36-9FF1-420ADAAFDB71}" name="Max" dataDxfId="17">
       <calculatedColumnFormula>MAX(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B879FB0F-3934-4585-9222-D925C5176823}" name="CONTAR" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{1BF4D79A-9B18-4D20-976A-C82BFE477768}" name="CONTARA" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{B879FB0F-3934-4585-9222-D925C5176823}" name="CONTAR" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{1BF4D79A-9B18-4D20-976A-C82BFE477768}" name="CONTARA" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}" name="Tabla2" displayName="Tabla2" ref="B3:D8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}" name="Tabla2" displayName="Tabla2" ref="B3:D8" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="B3:D8" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C3DA60A-7648-4784-A51A-01D675554313}" name="Nombre" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{2D12E87D-6420-4086-8B3A-D9C81862F652}" name="Edad" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{39DE13FA-2E57-4E09-A7FC-FA17DFDA488A}" name="Aprobado (&gt;=18 años)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3C3DA60A-7648-4784-A51A-01D675554313}" name="Nombre" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2D12E87D-6420-4086-8B3A-D9C81862F652}" name="Edad" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{39DE13FA-2E57-4E09-A7FC-FA17DFDA488A}" name="Aprobado (&gt;=18 años)" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{69EDDA2A-B1B3-4A92-AD21-0CA838941503}" name="Tabla3" displayName="Tabla3" ref="B12:F13" totalsRowShown="0">
+  <autoFilter ref="B12:F13" xr:uid="{69EDDA2A-B1B3-4A92-AD21-0CA838941503}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A298688F-E773-4258-80E4-1A7193AF19D7}" name="Colmna1"/>
+    <tableColumn id="2" xr3:uid="{DC132E3F-7F99-4B1A-8D9E-581D3E3B1C06}" name="Columna2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{152C6839-A257-4E30-A7E6-32C609701C3D}" name="Columna3">
+      <calculatedColumnFormula>B13/C13</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{8BD0725B-F3A6-4BB6-BFB2-46B8271FCED4}" name="Columna4">
+      <calculatedColumnFormula>IFERROR(B13/C13, "No dividas entre cero")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B47DE79D-91DC-4013-87EC-A9BB4C664D61}" name="Columna5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BCF8C694-4626-4B3E-A048-C628109A8C33}" name="Tabla25" displayName="Tabla25" ref="B17:D22" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B17:D22" xr:uid="{BCF8C694-4626-4B3E-A048-C628109A8C33}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F5E7902F-DC78-4E84-A13E-71EDBD57FB51}" name="Nombre" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1AA88975-0F2E-49C2-811F-2154E19752E5}" name="Edad" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FA8A31C2-21E2-4F7F-B394-BC685D6ECAF8}" name="Categoría" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1073,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,14 +1146,15 @@
     <col min="1" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1114,7 +1177,7 @@
         <v>Aprobado</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1126,7 +1189,7 @@
         <v>Reprobado</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1201,7 @@
         <v>Aprobado</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1150,7 +1213,7 @@
         <v>Aprobado</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -1163,40 +1226,118 @@
         <v>Reprobado</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" t="e">
+        <f>B13/C13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IFERROR(B13/C13, "No dividas entre cero")</f>
+        <v>No dividas entre cero</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3">
+        <v>23</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3">
+        <v>16</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/2.Funciones_Básicas/ejercicios/data.xlsx
+++ b/2.Funciones_Básicas/ejercicios/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\2.Funciones_Básicas\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270950E2-A0FB-4FA3-AE9F-7917686F1436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEF12D8-466D-4BC0-8191-2B72957A91A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1290" windowWidth="19110" windowHeight="10230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Nombre</t>
   </si>
@@ -201,6 +223,9 @@
   </si>
   <si>
     <t>Categoría</t>
+  </si>
+  <si>
+    <t>José</t>
   </si>
 </sst>
 </file>
@@ -319,7 +344,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -328,10 +353,32 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -342,16 +389,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -588,12 +625,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BCF8C694-4626-4B3E-A048-C628109A8C33}" name="Tabla25" displayName="Tabla25" ref="B17:D22" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B17:D22" xr:uid="{BCF8C694-4626-4B3E-A048-C628109A8C33}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BCF8C694-4626-4B3E-A048-C628109A8C33}" name="Tabla25" displayName="Tabla25" ref="B17:D23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+  <autoFilter ref="B17:D23" xr:uid="{BCF8C694-4626-4B3E-A048-C628109A8C33}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F5E7902F-DC78-4E84-A13E-71EDBD57FB51}" name="Nombre" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{1AA88975-0F2E-49C2-811F-2154E19752E5}" name="Edad" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{FA8A31C2-21E2-4F7F-B394-BC685D6ECAF8}" name="Categoría" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FA8A31C2-21E2-4F7F-B394-BC685D6ECAF8}" name="Categoría" dataDxfId="0">
+      <calculatedColumnFormula array="1">_xlfn.IFS(C18&lt;=17, "Menor", C18&lt;=40, "Aprobado", C18&gt;=41, "Jubilado")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1135,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1328,10 @@
       <c r="C18" s="3">
         <v>23</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="str" cm="1">
+        <f t="array" ref="D18">_xlfn.IFS(C18&lt;=17, "Menor", C18&lt;=40, "Aprobado", C18&gt;=41, "Jubilado")</f>
+        <v>Aprobado</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
@@ -1298,7 +1340,10 @@
       <c r="C19" s="3">
         <v>17</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="9" t="str" cm="1">
+        <f t="array" ref="D19">_xlfn.IFS(C19&lt;=17, "Menor", C19&lt;=40, "Aprobado", C19&gt;=41, "Jubilado")</f>
+        <v>Menor</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
@@ -1307,7 +1352,10 @@
       <c r="C20" s="3">
         <v>35</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="9" t="str" cm="1">
+        <f t="array" ref="D20">_xlfn.IFS(C20&lt;=17, "Menor", C20&lt;=40, "Aprobado", C20&gt;=41, "Jubilado")</f>
+        <v>Aprobado</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
@@ -1316,7 +1364,10 @@
       <c r="C21" s="3">
         <v>29</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="9" t="str" cm="1">
+        <f t="array" ref="D21">_xlfn.IFS(C21&lt;=17, "Menor", C21&lt;=40, "Aprobado", C21&gt;=41, "Jubilado")</f>
+        <v>Aprobado</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
@@ -1325,7 +1376,22 @@
       <c r="C22" s="3">
         <v>16</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="9" t="str" cm="1">
+        <f t="array" ref="D22">_xlfn.IFS(C22&lt;=17, "Menor", C22&lt;=40, "Aprobado", C22&gt;=41, "Jubilado")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3">
+        <v>50</v>
+      </c>
+      <c r="D23" s="9" t="str" cm="1">
+        <f t="array" ref="D23">_xlfn.IFS(C23&lt;=17, "Menor", C23&lt;=40, "Aprobado", C23&gt;=41, "Jubilado")</f>
+        <v>Jubilado</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/2.Funciones_Básicas/ejercicios/data.xlsx
+++ b/2.Funciones_Básicas/ejercicios/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\2.Funciones_Básicas\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEF12D8-466D-4BC0-8191-2B72957A91A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC00A885-08A8-4469-997F-0FC528AA8C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1290" windowWidth="19110" windowHeight="10230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Matemáticos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>Nombre</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>José</t>
+  </si>
+  <si>
+    <t>Izquierda</t>
+  </si>
+  <si>
+    <t>Derecha</t>
+  </si>
+  <si>
+    <t>Funciones: IZQUIERDA, DERECHA</t>
+  </si>
+  <si>
+    <t>Función: EXTRAE</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Función: CONCATENAR</t>
   </si>
 </sst>
 </file>
@@ -322,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -344,14 +362,68 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="43">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -568,39 +640,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}" name="Tabla1" displayName="Tabla1" ref="A1:J6" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}" name="Tabla1" displayName="Tabla1" ref="A1:J6" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:J6" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5555F39B-5640-4FC5-9EA8-B28C8A5FC836}" name="Nombre" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{1263FBBC-4820-4FB4-B2E9-0A13D52B80FB}" name="Nota 1" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{428924CE-E9CF-4A69-9930-1BDC5B1ED232}" name="Nota 2" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{0785C79C-178D-4CA5-87E1-A4861A25C608}" name="Nota 3" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{86C3687C-0DA6-432C-902D-44A867595DB9}" name="Total Notas" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{5555F39B-5640-4FC5-9EA8-B28C8A5FC836}" name="Nombre" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{1263FBBC-4820-4FB4-B2E9-0A13D52B80FB}" name="Nota 1" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{428924CE-E9CF-4A69-9930-1BDC5B1ED232}" name="Nota 2" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{0785C79C-178D-4CA5-87E1-A4861A25C608}" name="Nota 3" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{86C3687C-0DA6-432C-902D-44A867595DB9}" name="Total Notas" dataDxfId="36">
       <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BBDE2061-9AB5-4326-84A9-BB9C8B218E6B}" name="Promedio" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{BBDE2061-9AB5-4326-84A9-BB9C8B218E6B}" name="Promedio" dataDxfId="35">
       <calculatedColumnFormula>AVERAGE(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3212984E-8604-4D52-A7AC-2556B2A96D6F}" name="Min" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{3212984E-8604-4D52-A7AC-2556B2A96D6F}" name="Min" dataDxfId="34">
       <calculatedColumnFormula>MIN(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4697060C-B378-4A36-9FF1-420ADAAFDB71}" name="Max" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{4697060C-B378-4A36-9FF1-420ADAAFDB71}" name="Max" dataDxfId="33">
       <calculatedColumnFormula>MAX(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B879FB0F-3934-4585-9222-D925C5176823}" name="CONTAR" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{1BF4D79A-9B18-4D20-976A-C82BFE477768}" name="CONTARA" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{B879FB0F-3934-4585-9222-D925C5176823}" name="CONTAR" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{1BF4D79A-9B18-4D20-976A-C82BFE477768}" name="CONTARA" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}" name="Tabla2" displayName="Tabla2" ref="B3:D8" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}" name="Tabla2" displayName="Tabla2" ref="B3:D8" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
   <autoFilter ref="B3:D8" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C3DA60A-7648-4784-A51A-01D675554313}" name="Nombre" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{2D12E87D-6420-4086-8B3A-D9C81862F652}" name="Edad" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{39DE13FA-2E57-4E09-A7FC-FA17DFDA488A}" name="Aprobado (&gt;=18 años)" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{3C3DA60A-7648-4784-A51A-01D675554313}" name="Nombre" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{2D12E87D-6420-4086-8B3A-D9C81862F652}" name="Edad" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{39DE13FA-2E57-4E09-A7FC-FA17DFDA488A}" name="Aprobado (&gt;=18 años)" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -611,7 +683,7 @@
   <autoFilter ref="B12:F13" xr:uid="{69EDDA2A-B1B3-4A92-AD21-0CA838941503}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A298688F-E773-4258-80E4-1A7193AF19D7}" name="Colmna1"/>
-    <tableColumn id="2" xr3:uid="{DC132E3F-7F99-4B1A-8D9E-581D3E3B1C06}" name="Columna2" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{DC132E3F-7F99-4B1A-8D9E-581D3E3B1C06}" name="Columna2" dataDxfId="23"/>
     <tableColumn id="3" xr3:uid="{152C6839-A257-4E30-A7E6-32C609701C3D}" name="Columna3">
       <calculatedColumnFormula>B13/C13</calculatedColumnFormula>
     </tableColumn>
@@ -625,14 +697,55 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BCF8C694-4626-4B3E-A048-C628109A8C33}" name="Tabla25" displayName="Tabla25" ref="B17:D23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BCF8C694-4626-4B3E-A048-C628109A8C33}" name="Tabla25" displayName="Tabla25" ref="B17:D23" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
   <autoFilter ref="B17:D23" xr:uid="{BCF8C694-4626-4B3E-A048-C628109A8C33}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F5E7902F-DC78-4E84-A13E-71EDBD57FB51}" name="Nombre" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{1AA88975-0F2E-49C2-811F-2154E19752E5}" name="Edad" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{FA8A31C2-21E2-4F7F-B394-BC685D6ECAF8}" name="Categoría" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{F5E7902F-DC78-4E84-A13E-71EDBD57FB51}" name="Nombre" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{1AA88975-0F2E-49C2-811F-2154E19752E5}" name="Edad" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{FA8A31C2-21E2-4F7F-B394-BC685D6ECAF8}" name="Categoría" dataDxfId="16">
       <calculatedColumnFormula array="1">_xlfn.IFS(C18&lt;=17, "Menor", C18&lt;=40, "Aprobado", C18&gt;=41, "Jubilado")</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DD07CD68-C58B-4837-80EB-FAE60ACF04FA}" name="Tabla5" displayName="Tabla5" ref="B3:E8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B3:E8" xr:uid="{DD07CD68-C58B-4837-80EB-FAE60ACF04FA}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{17846D00-1247-45BD-BF3A-0839E8304780}" name="Código" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{203E5874-3703-448C-AEA2-6EFE332BA472}" name="Producto" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4381D86D-AB91-40F0-9491-73564C18E8D9}" name="Izquierda" dataDxfId="3">
+      <calculatedColumnFormula>LEFT(C4,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{2C57A594-7839-454D-9F48-B01A08049F84}" name="Derecha" dataDxfId="2">
+      <calculatedColumnFormula>RIGHT(C4,1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2C8AF0E0-A2A6-43E1-8415-C1DFA0F7DA10}" name="Tabla57" displayName="Tabla57" ref="B12:D17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B12:D17" xr:uid="{2C8AF0E0-A2A6-43E1-8415-C1DFA0F7DA10}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{928441E1-9F08-42B2-B6EC-6BF97E986A91}" name="Código" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7C70BA2C-9B00-417C-9F54-F1D512C1A963}" name="Producto" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{ACB5901B-77E2-4347-930A-4FFA59EC41C4}" name="Categoria" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DF3970DC-0DDE-4CAE-85BC-716B8B3CF9A2}" name="Tabla578" displayName="Tabla578" ref="G5:I10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="G5:I10" xr:uid="{DF3970DC-0DDE-4CAE-85BC-716B8B3CF9A2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F6EE6AC1-81D0-4A6E-9B11-657416E989C2}" name="Código" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{AC691107-6042-4BEF-9CF8-AED31D1487E5}" name="Producto" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{3EAD42F7-F134-4DDC-99BE-BF644B093BAD}" name="Categoria" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1176,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1441,7 @@
       <c r="C18" s="3">
         <v>23</v>
       </c>
-      <c r="D18" s="9" t="str" cm="1">
+      <c r="D18" s="3" t="str" cm="1">
         <f t="array" ref="D18">_xlfn.IFS(C18&lt;=17, "Menor", C18&lt;=40, "Aprobado", C18&gt;=41, "Jubilado")</f>
         <v>Aprobado</v>
       </c>
@@ -1340,7 +1453,7 @@
       <c r="C19" s="3">
         <v>17</v>
       </c>
-      <c r="D19" s="9" t="str" cm="1">
+      <c r="D19" s="3" t="str" cm="1">
         <f t="array" ref="D19">_xlfn.IFS(C19&lt;=17, "Menor", C19&lt;=40, "Aprobado", C19&gt;=41, "Jubilado")</f>
         <v>Menor</v>
       </c>
@@ -1352,7 +1465,7 @@
       <c r="C20" s="3">
         <v>35</v>
       </c>
-      <c r="D20" s="9" t="str" cm="1">
+      <c r="D20" s="3" t="str" cm="1">
         <f t="array" ref="D20">_xlfn.IFS(C20&lt;=17, "Menor", C20&lt;=40, "Aprobado", C20&gt;=41, "Jubilado")</f>
         <v>Aprobado</v>
       </c>
@@ -1364,7 +1477,7 @@
       <c r="C21" s="3">
         <v>29</v>
       </c>
-      <c r="D21" s="9" t="str" cm="1">
+      <c r="D21" s="3" t="str" cm="1">
         <f t="array" ref="D21">_xlfn.IFS(C21&lt;=17, "Menor", C21&lt;=40, "Aprobado", C21&gt;=41, "Jubilado")</f>
         <v>Aprobado</v>
       </c>
@@ -1376,7 +1489,7 @@
       <c r="C22" s="3">
         <v>16</v>
       </c>
-      <c r="D22" s="9" t="str" cm="1">
+      <c r="D22" s="3" t="str" cm="1">
         <f t="array" ref="D22">_xlfn.IFS(C22&lt;=17, "Menor", C22&lt;=40, "Aprobado", C22&gt;=41, "Jubilado")</f>
         <v>Menor</v>
       </c>
@@ -1388,7 +1501,7 @@
       <c r="C23" s="3">
         <v>50</v>
       </c>
-      <c r="D23" s="9" t="str" cm="1">
+      <c r="D23" s="3" t="str" cm="1">
         <f t="array" ref="D23">_xlfn.IFS(C23&lt;=17, "Menor", C23&lt;=40, "Aprobado", C23&gt;=41, "Jubilado")</f>
         <v>Jubilado</v>
       </c>
@@ -1410,62 +1523,279 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" s="11" t="str">
+        <f>LEFT(C4,1)</f>
+        <v>L</v>
+      </c>
+      <c r="E4" s="11" t="str">
+        <f>RIGHT(C4,1)</f>
+        <v>p</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5" s="11" t="str">
+        <f>LEFT(C5,1)</f>
+        <v>M</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f>RIGHT(C5,1)</f>
+        <v>e</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" s="11" t="str">
+        <f>LEFT(C6,1)</f>
+        <v>T</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f>RIGHT(C6,1)</f>
+        <v>o</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f>CONCATENATE(G6, " ", H6)</f>
+        <v>AB123 Laptop</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D7" s="11" t="str">
+        <f>LEFT(C7,1)</f>
+        <v>M</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f>RIGHT(C7,1)</f>
+        <v>r</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f>CONCATENATE(G7, " ", H7)</f>
+        <v>CD456 Mouse</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="D8" s="11" t="str">
+        <f>LEFT(C8,1)</f>
+        <v>I</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f>RIGHT(C8,1)</f>
+        <v>a</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f>CONCATENATE(G8, " ", H8)</f>
+        <v>EF789 Teclado</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f>CONCATENATE(G9, " ", H9)</f>
+        <v>GH012 Monitor</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f>CONCATENATE(G10, " ", H10)</f>
+        <v>IJ345 Impresora</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f>MID(C13, 3,2)</f>
+        <v>pt</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11" t="str">
+        <f>MID(C14, 3, 1)</f>
+        <v>u</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="11" t="str">
+        <f>MID(C15, 3, 3)</f>
+        <v>cla</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f>MID(C16, 3, 3)</f>
+        <v>nit</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f>MID(C17, 2, 4)</f>
+        <v>mpre</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/2.Funciones_Básicas/ejercicios/data.xlsx
+++ b/2.Funciones_Básicas/ejercicios/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\2.Funciones_Básicas\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC00A885-08A8-4469-997F-0FC528AA8C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8A61F1-3B1A-426E-BB99-43794C26C11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Matemáticos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>Nombre</t>
   </si>
@@ -244,13 +244,34 @@
   </si>
   <si>
     <t>Función: CONCATENAR</t>
+  </si>
+  <si>
+    <t>Funciones: HOY y AHORA</t>
+  </si>
+  <si>
+    <t>Hoy</t>
+  </si>
+  <si>
+    <t>Ahora</t>
+  </si>
+  <si>
+    <t>Funciones: AÑO, MES y DÍA</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Día</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +295,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +315,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -340,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -359,74 +406,50 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -437,30 +460,57 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -492,15 +542,73 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -508,8 +616,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -565,37 +671,48 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -626,6 +743,68 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -640,39 +819,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}" name="Tabla1" displayName="Tabla1" ref="A1:J6" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}" name="Tabla1" displayName="Tabla1" ref="A1:J6" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:J6" xr:uid="{40590D21-E671-4451-B44F-0B2CD57E9C80}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5555F39B-5640-4FC5-9EA8-B28C8A5FC836}" name="Nombre" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{1263FBBC-4820-4FB4-B2E9-0A13D52B80FB}" name="Nota 1" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{428924CE-E9CF-4A69-9930-1BDC5B1ED232}" name="Nota 2" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{0785C79C-178D-4CA5-87E1-A4861A25C608}" name="Nota 3" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{86C3687C-0DA6-432C-902D-44A867595DB9}" name="Total Notas" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{5555F39B-5640-4FC5-9EA8-B28C8A5FC836}" name="Nombre" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{1263FBBC-4820-4FB4-B2E9-0A13D52B80FB}" name="Nota 1" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{428924CE-E9CF-4A69-9930-1BDC5B1ED232}" name="Nota 2" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{0785C79C-178D-4CA5-87E1-A4861A25C608}" name="Nota 3" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{86C3687C-0DA6-432C-902D-44A867595DB9}" name="Total Notas" dataDxfId="47">
       <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BBDE2061-9AB5-4326-84A9-BB9C8B218E6B}" name="Promedio" dataDxfId="35">
+    <tableColumn id="6" xr3:uid="{BBDE2061-9AB5-4326-84A9-BB9C8B218E6B}" name="Promedio" dataDxfId="46">
       <calculatedColumnFormula>AVERAGE(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3212984E-8604-4D52-A7AC-2556B2A96D6F}" name="Min" dataDxfId="34">
+    <tableColumn id="7" xr3:uid="{3212984E-8604-4D52-A7AC-2556B2A96D6F}" name="Min" dataDxfId="45">
       <calculatedColumnFormula>MIN(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4697060C-B378-4A36-9FF1-420ADAAFDB71}" name="Max" dataDxfId="33">
+    <tableColumn id="8" xr3:uid="{4697060C-B378-4A36-9FF1-420ADAAFDB71}" name="Max" dataDxfId="44">
       <calculatedColumnFormula>MAX(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B879FB0F-3934-4585-9222-D925C5176823}" name="CONTAR" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{1BF4D79A-9B18-4D20-976A-C82BFE477768}" name="CONTARA" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{B879FB0F-3934-4585-9222-D925C5176823}" name="CONTAR" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{1BF4D79A-9B18-4D20-976A-C82BFE477768}" name="CONTARA" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}" name="Tabla2" displayName="Tabla2" ref="B3:D8" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}" name="Tabla2" displayName="Tabla2" ref="B3:D8" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="B3:D8" xr:uid="{21A50AD4-2B10-4642-9971-F98CC1F0CC9D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C3DA60A-7648-4784-A51A-01D675554313}" name="Nombre" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{2D12E87D-6420-4086-8B3A-D9C81862F652}" name="Edad" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{39DE13FA-2E57-4E09-A7FC-FA17DFDA488A}" name="Aprobado (&gt;=18 años)" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{3C3DA60A-7648-4784-A51A-01D675554313}" name="Nombre" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{2D12E87D-6420-4086-8B3A-D9C81862F652}" name="Edad" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{39DE13FA-2E57-4E09-A7FC-FA17DFDA488A}" name="Aprobado (&gt;=18 años)" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -683,7 +862,7 @@
   <autoFilter ref="B12:F13" xr:uid="{69EDDA2A-B1B3-4A92-AD21-0CA838941503}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A298688F-E773-4258-80E4-1A7193AF19D7}" name="Colmna1"/>
-    <tableColumn id="2" xr3:uid="{DC132E3F-7F99-4B1A-8D9E-581D3E3B1C06}" name="Columna2" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{DC132E3F-7F99-4B1A-8D9E-581D3E3B1C06}" name="Columna2" dataDxfId="34"/>
     <tableColumn id="3" xr3:uid="{152C6839-A257-4E30-A7E6-32C609701C3D}" name="Columna3">
       <calculatedColumnFormula>B13/C13</calculatedColumnFormula>
     </tableColumn>
@@ -697,12 +876,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BCF8C694-4626-4B3E-A048-C628109A8C33}" name="Tabla25" displayName="Tabla25" ref="B17:D23" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BCF8C694-4626-4B3E-A048-C628109A8C33}" name="Tabla25" displayName="Tabla25" ref="B17:D23" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30">
   <autoFilter ref="B17:D23" xr:uid="{BCF8C694-4626-4B3E-A048-C628109A8C33}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F5E7902F-DC78-4E84-A13E-71EDBD57FB51}" name="Nombre" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{1AA88975-0F2E-49C2-811F-2154E19752E5}" name="Edad" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{FA8A31C2-21E2-4F7F-B394-BC685D6ECAF8}" name="Categoría" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{F5E7902F-DC78-4E84-A13E-71EDBD57FB51}" name="Nombre" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{1AA88975-0F2E-49C2-811F-2154E19752E5}" name="Edad" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{FA8A31C2-21E2-4F7F-B394-BC685D6ECAF8}" name="Categoría" dataDxfId="27">
       <calculatedColumnFormula array="1">_xlfn.IFS(C18&lt;=17, "Menor", C18&lt;=40, "Aprobado", C18&gt;=41, "Jubilado")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -711,15 +890,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DD07CD68-C58B-4837-80EB-FAE60ACF04FA}" name="Tabla5" displayName="Tabla5" ref="B3:E8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DD07CD68-C58B-4837-80EB-FAE60ACF04FA}" name="Tabla5" displayName="Tabla5" ref="B3:E8" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="B3:E8" xr:uid="{DD07CD68-C58B-4837-80EB-FAE60ACF04FA}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{17846D00-1247-45BD-BF3A-0839E8304780}" name="Código" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{203E5874-3703-448C-AEA2-6EFE332BA472}" name="Producto" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4381D86D-AB91-40F0-9491-73564C18E8D9}" name="Izquierda" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{17846D00-1247-45BD-BF3A-0839E8304780}" name="Código" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{203E5874-3703-448C-AEA2-6EFE332BA472}" name="Producto" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{4381D86D-AB91-40F0-9491-73564C18E8D9}" name="Izquierda" dataDxfId="22">
       <calculatedColumnFormula>LEFT(C4,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2C57A594-7839-454D-9F48-B01A08049F84}" name="Derecha" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{2C57A594-7839-454D-9F48-B01A08049F84}" name="Derecha" dataDxfId="21">
       <calculatedColumnFormula>RIGHT(C4,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -728,24 +907,55 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2C8AF0E0-A2A6-43E1-8415-C1DFA0F7DA10}" name="Tabla57" displayName="Tabla57" ref="B12:D17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2C8AF0E0-A2A6-43E1-8415-C1DFA0F7DA10}" name="Tabla57" displayName="Tabla57" ref="B12:D17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B12:D17" xr:uid="{2C8AF0E0-A2A6-43E1-8415-C1DFA0F7DA10}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{928441E1-9F08-42B2-B6EC-6BF97E986A91}" name="Código" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{7C70BA2C-9B00-417C-9F54-F1D512C1A963}" name="Producto" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{ACB5901B-77E2-4347-930A-4FFA59EC41C4}" name="Categoria" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{928441E1-9F08-42B2-B6EC-6BF97E986A91}" name="Código" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{7C70BA2C-9B00-417C-9F54-F1D512C1A963}" name="Producto" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{ACB5901B-77E2-4347-930A-4FFA59EC41C4}" name="Categoria" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DF3970DC-0DDE-4CAE-85BC-716B8B3CF9A2}" name="Tabla578" displayName="Tabla578" ref="G5:I10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DF3970DC-0DDE-4CAE-85BC-716B8B3CF9A2}" name="Tabla578" displayName="Tabla578" ref="G5:I10" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="G5:I10" xr:uid="{DF3970DC-0DDE-4CAE-85BC-716B8B3CF9A2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F6EE6AC1-81D0-4A6E-9B11-657416E989C2}" name="Código" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{AC691107-6042-4BEF-9CF8-AED31D1487E5}" name="Producto" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{3EAD42F7-F134-4DDC-99BE-BF644B093BAD}" name="Categoria" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{F6EE6AC1-81D0-4A6E-9B11-657416E989C2}" name="Código" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{AC691107-6042-4BEF-9CF8-AED31D1487E5}" name="Producto" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{3EAD42F7-F134-4DDC-99BE-BF644B093BAD}" name="Categoria" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F49B7B17-0117-4D69-851A-6EAD000AFAF6}" name="Tabla8" displayName="Tabla8" ref="C4:F9" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="C4:F9" xr:uid="{F49B7B17-0117-4D69-851A-6EAD000AFAF6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4AE5021F-C371-4943-9DFA-519EF67E1C6E}" name="Evento"/>
+    <tableColumn id="2" xr3:uid="{BF678BD6-E6C5-40DB-8E55-1946B59A45C8}" name="Fecha" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{8083680E-052A-4A37-B3CF-D7C85935B19E}" name="Hoy">
+      <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{0B9AED8A-68D8-47FC-B78E-D2FB66FD4579}" name="Ahora">
+      <calculatedColumnFormula>NOW()</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{533AD9C7-343D-4643-9D42-6FF7C1975417}" name="Tabla9" displayName="Tabla9" ref="C14:G19" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="C14:G19" xr:uid="{533AD9C7-343D-4643-9D42-6FF7C1975417}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1DE6F34B-939D-4A64-90ED-0F0BC4111416}" name="Evento" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E274B932-DBFF-4C4D-B2E2-4BE31EF7F0CF}" name="Fecha" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F6A0E770-A07F-4C8B-B6D8-C96A66FEF76C}" name="Año" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{77A818BA-81BD-40BC-BE07-B34A4F0B5AD0}" name="Mes" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{685D6AE4-9315-47F1-90B3-4E2BC6E77CE2}" name="Día" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1379,10 +1589,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1418,10 +1628,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
@@ -1525,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,66 +1751,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="10" t="str">
         <f>LEFT(C4,1)</f>
         <v>L</v>
       </c>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="10" t="str">
         <f>RIGHT(C4,1)</f>
         <v>p</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="10" t="str">
         <f>LEFT(C5,1)</f>
         <v>M</v>
       </c>
-      <c r="E5" s="11" t="str">
+      <c r="E5" s="10" t="str">
         <f>RIGHT(C5,1)</f>
         <v>e</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -1608,17 +1818,17 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="10" t="str">
         <f>LEFT(C6,1)</f>
         <v>T</v>
       </c>
-      <c r="E6" s="11" t="str">
+      <c r="E6" s="10" t="str">
         <f>RIGHT(C6,1)</f>
         <v>o</v>
       </c>
@@ -1634,17 +1844,17 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="10" t="str">
         <f>LEFT(C7,1)</f>
         <v>M</v>
       </c>
-      <c r="E7" s="11" t="str">
+      <c r="E7" s="10" t="str">
         <f>RIGHT(C7,1)</f>
         <v>r</v>
       </c>
@@ -1660,17 +1870,17 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="10" t="str">
         <f>LEFT(C8,1)</f>
         <v>I</v>
       </c>
-      <c r="E8" s="11" t="str">
+      <c r="E8" s="10" t="str">
         <f>RIGHT(C8,1)</f>
         <v>a</v>
       </c>
@@ -1698,10 +1908,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="11"/>
       <c r="G10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1714,72 +1924,72 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="11" t="str">
+      <c r="D13" s="10" t="str">
         <f>MID(C13, 3,2)</f>
         <v>pt</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="str">
+      <c r="D14" s="10" t="str">
         <f>MID(C14, 3, 1)</f>
         <v>u</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11" t="str">
+      <c r="D15" s="10" t="str">
         <f>MID(C15, 3, 3)</f>
         <v>cla</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="11" t="str">
+      <c r="D16" s="10" t="str">
         <f>MID(C16, 3, 3)</f>
         <v>nit</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="11" t="str">
+      <c r="D17" s="10" t="str">
         <f>MID(C17, 2, 4)</f>
         <v>mpre</v>
       </c>
@@ -1801,61 +2011,253 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="C2:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E5" s="12">
+        <f ca="1">TODAY()</f>
+        <v>45713</v>
+      </c>
+      <c r="F5" s="13">
+        <f ca="1">NOW()</f>
+        <v>45713.620187037035</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D6" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E6" s="12">
+        <f t="shared" ref="E6:E9" ca="1" si="0">TODAY()</f>
+        <v>45713</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" ref="F6:F9" ca="1" si="1">NOW()</f>
+        <v>45713.620187037035</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D7" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E7" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>45713</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" ca="1" si="1"/>
+        <v>45713.620187037035</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D8" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E8" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>45713</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" ca="1" si="1"/>
+        <v>45713.620187037035</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D9" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="E9" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>45713</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" ca="1" si="1"/>
+        <v>45713.620187037035</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="15">
+        <f>YEAR(D15)</f>
+        <v>2024</v>
+      </c>
+      <c r="F15" s="15">
+        <f>MONTH(D15)</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="15">
+        <f>DAY(D15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="15">
+        <f>YEAR(D16)</f>
+        <v>2024</v>
+      </c>
+      <c r="F16" s="15">
+        <f>MONTH(D16)</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="15">
+        <f>DAY(D16)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="15">
+        <f>YEAR(D17)</f>
+        <v>2024</v>
+      </c>
+      <c r="F17" s="15">
+        <f>MONTH(D17)</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="15">
+        <f>DAY(D17)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="15">
+        <f>YEAR(D18)</f>
+        <v>2024</v>
+      </c>
+      <c r="F18" s="15">
+        <f>MONTH(D18)</f>
+        <v>6</v>
+      </c>
+      <c r="G18" s="15">
+        <f>DAY(D18)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="15">
+        <f>YEAR(D19)</f>
+        <v>2024</v>
+      </c>
+      <c r="F19" s="15">
+        <f>MONTH(D19)</f>
+        <v>7</v>
+      </c>
+      <c r="G19" s="15">
+        <f>DAY(D19)</f>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>